--- a/Pixel4ScrumT1.xlsx
+++ b/Pixel4ScrumT1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skillscandinavia.sharepoint.com/sites/Brights/Delade dokument/Brights - Data Engineer/2025Q1 (Finland)/4. Agile/2 Exercise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilyas Land\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8665F896-779F-4C59-B9F4-A37903962558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D27614-759E-4BC1-8843-4A9D14DC3B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C813347-EA75-4019-9773-5C1EF77C420C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{4C813347-EA75-4019-9773-5C1EF77C420C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="11" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>Krav för godkänd byggnad</t>
   </si>
@@ -268,12 +266,21 @@
   <si>
     <t>For at least two cars</t>
   </si>
+  <si>
+    <t>Jonna</t>
+  </si>
+  <si>
+    <t>Mariko</t>
+  </si>
+  <si>
+    <t>Ilyas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,8 +350,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +425,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -439,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,6 +558,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +596,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -577,7 +658,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -707,7 +788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="507208543"/>
@@ -767,7 +848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="504719423"/>
@@ -815,7 +896,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -829,7 +910,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -891,7 +972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -992,7 +1073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="568996271"/>
@@ -1051,7 +1132,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516008895"/>
@@ -1099,7 +1180,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4820,9 +4901,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4860,7 +4941,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4966,7 +5047,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5108,7 +5189,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5118,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32AF2DB-A10D-47C0-806F-98C62E932F1A}">
   <dimension ref="A1:GF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DM28" sqref="DM28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9355,7 +9436,7 @@
   <dimension ref="A2:IF37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:BP3"/>
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10244,8 +10325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6CDAF0-264E-4E93-A2EB-90BF5E4AA909}">
   <dimension ref="A2:IF37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:BP3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10579,6 +10660,171 @@
       <c r="IE6" s="5"/>
       <c r="IF6" s="5"/>
     </row>
+    <row r="26" spans="20:54" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+    </row>
+    <row r="27" spans="20:54" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+    </row>
+    <row r="28" spans="20:54" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+    </row>
+    <row r="29" spans="20:54" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="27"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="27"/>
+    </row>
+    <row r="30" spans="20:54" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AV30" s="28"/>
+      <c r="AW30" s="28"/>
+      <c r="AX30" s="28"/>
+      <c r="AY30" s="28"/>
+      <c r="AZ30" s="28"/>
+      <c r="BA30" s="28"/>
+    </row>
+    <row r="31" spans="20:54" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U31" s="25"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AK31" s="25"/>
+      <c r="AV31" s="28"/>
+      <c r="AW31" s="32"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="28"/>
+      <c r="BA31" s="28"/>
+    </row>
+    <row r="32" spans="20:54" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="25"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AK32" s="25"/>
+      <c r="AV32" s="28"/>
+      <c r="AW32" s="30"/>
+      <c r="AX32" s="31"/>
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="28"/>
+      <c r="BA32" s="28"/>
+    </row>
+    <row r="33" spans="1:94" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U33" s="25"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AK33" s="25"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="36"/>
+      <c r="AX33" s="35"/>
+      <c r="AY33" s="34"/>
+      <c r="AZ33" s="28"/>
+      <c r="BA33" s="28"/>
+    </row>
+    <row r="34" spans="1:94" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AV34" s="28"/>
+      <c r="AW34" s="28"/>
+      <c r="AX34" s="28"/>
+      <c r="AY34" s="28"/>
+      <c r="AZ34" s="28"/>
+      <c r="BA34" s="28"/>
+    </row>
+    <row r="35" spans="1:94" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="28"/>
+      <c r="BA35" s="28"/>
+    </row>
+    <row r="36" spans="1:94" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="24"/>
+      <c r="Y36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AV36" s="28"/>
+      <c r="AW36" s="28"/>
+      <c r="AX36" s="28"/>
+      <c r="AY36" s="28"/>
+      <c r="AZ36" s="28"/>
+      <c r="BA36" s="28"/>
+    </row>
     <row r="37" spans="1:94" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
@@ -11667,8 +11913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD8B467-AC42-4750-9135-A26685BDC074}">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="A1:F37"/>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11722,6 +11968,9 @@
       <c r="C5">
         <v>6</v>
       </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
       <c r="F5" t="s">
         <v>57</v>
       </c>
@@ -11777,6 +12026,9 @@
       <c r="C10">
         <v>8</v>
       </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
       <c r="F10" t="s">
         <v>60</v>
       </c>
@@ -11788,6 +12040,9 @@
       <c r="C11">
         <v>8</v>
       </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -11837,6 +12092,9 @@
       <c r="C16">
         <v>6</v>
       </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
       <c r="F16" t="s">
         <v>64</v>
       </c>
@@ -12027,6 +12285,9 @@
       </c>
       <c r="C35">
         <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -12055,12 +12316,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6e247ea-a674-41b5-96c6-878a1655dabd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cf8b12e-4370-4e0e-85ff-620a84dd6554" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12259,35 +12522,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6e247ea-a674-41b5-96c6-878a1655dabd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cf8b12e-4370-4e0e-85ff-620a84dd6554" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB1F9F74-630A-4872-85B1-47313239616F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C9D8A3F-8357-47A6-901F-6D4BC442D038}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C776A8A8-5A6D-4E7E-AF16-A4D44891BC7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c8992ba0-9d57-432b-a5ea-fa744d4f576e"/>
     <ds:schemaRef ds:uri="1aa3096d-3690-427b-ba20-7207a731e041"/>
+    <ds:schemaRef ds:uri="f6e247ea-a674-41b5-96c6-878a1655dabd"/>
+    <ds:schemaRef ds:uri="6cf8b12e-4370-4e0e-85ff-620a84dd6554"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C9D8A3F-8357-47A6-901F-6D4BC442D038}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6e247ea-a674-41b5-96c6-878a1655dabd"/>
+    <ds:schemaRef ds:uri="6cf8b12e-4370-4e0e-85ff-620a84dd6554"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB1F9F74-630A-4872-85B1-47313239616F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>